--- a/biology/Botanique/Lilium_bosniacum/Lilium_bosniacum.xlsx
+++ b/biology/Botanique/Lilium_bosniacum/Lilium_bosniacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium bosniacum, le lys bosniaque (en bosnien, zlatni ljiljan, en français lys doré), est une espèce de plante herbacée de la famille des Liliaceae appartenant au genre Lilium endémique dans les montagnes des Balkans. 
 Issu des armes du roi bosniaque  Stefan Tvrtko Ier de Bosnie (an 1353).
